--- a/10-27-24 to 11-02-24 Madison Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -4899,12 +4899,12 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 1st Sendik's, work w/ Carlie</t>
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
@@ -4931,21 +4931,9 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>@ Store, 1st Sendik's, work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -4998,7 +4986,11 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
@@ -5027,7 +5019,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -5042,37 +5034,6 @@
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-27-24 to 11-02-24 Madison Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Madison Schedule.xlsx
@@ -3033,21 +3033,9 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Seth</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store, 1st Kelley scan</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -3132,7 +3120,11 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3173,7 +3165,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3228,7 +3220,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3284,7 +3276,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
+          <t>5542 E RIVERSIDE BLVD</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3331,7 +3323,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5542 E RIVERSIDE BLVD</t>
+          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3396,11 +3388,7 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3458,9 +3446,21 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
@@ -3519,19 +3519,15 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
@@ -3582,12 +3578,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3641,12 +3637,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3704,15 +3700,19 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
@@ -3767,19 +3767,15 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
@@ -3830,12 +3826,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3875,16 +3871,8 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">

--- a/10-27-24 to 11-02-24 Madison Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Madison Schedule.xlsx
@@ -1459,11 +1459,7 @@
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1664,7 +1660,8 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima,
+Rx</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Madison Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2608,10 +2608,14 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1st Sendik's, work w/ Ashley</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2663,12 +2667,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1st Sendik's, work w/ Ashley</t>
+          <t>1st Sendik's, work w/ Angela</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -2718,14 +2722,10 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>1st Sendik's, work w/ Angela</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2785,10 +2785,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -2829,21 +2833,9 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2936,7 +2928,11 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -2994,7 +2990,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3037,7 +3033,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*FIRST INVENTORY</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3080,7 +3076,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>*FIRST INVENTORY</t>
+          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3127,7 +3123,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
+          <t>800 EAST MAES AVE</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3170,7 +3166,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>800 EAST MAES AVE</t>
+          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3223,11 +3219,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3278,9 +3270,21 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3327,17 +3331,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3390,17 +3394,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3461,17 +3465,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3528,12 +3532,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3587,12 +3591,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3646,12 +3650,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3713,12 +3717,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3776,12 +3780,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3835,12 +3839,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3874,12 +3878,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3913,12 +3917,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3952,12 +3956,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3991,12 +3995,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4030,12 +4034,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4069,12 +4073,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4106,21 +4110,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4173,7 +4165,11 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4202,7 +4198,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4233,7 +4229,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SENDIK'S, GERMANTOWN</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4264,7 +4260,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>SENDIK'S, GERMANTOWN</t>
+          <t>N112 W15800 MEQUON RD</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4295,7 +4291,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>N112 W15800 MEQUON RD</t>
+          <t>https://goo.gl/maps/NUJqE8qFKjS2</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4326,7 +4322,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NUJqE8qFKjS2</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4355,11 +4351,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -4385,9 +4377,21 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4414,17 +4418,18 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Corolla, work w/ Leyna</t>
         </is>
       </c>
       <c r="P80" t="inlineStr"/>
@@ -4453,20 +4458,15 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
@@ -4493,15 +4493,19 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>@ Store, work w/ Sydney</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -4528,17 +4532,17 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Sydney</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P83" t="inlineStr"/>
@@ -4567,12 +4571,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -4606,12 +4610,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -4645,12 +4649,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -4684,17 +4688,17 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 1st Sendik's, work w/ Michael</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
@@ -4723,17 +4727,17 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>@ Store, 1st Sendik's, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
@@ -4762,12 +4766,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -4801,12 +4805,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -4840,17 +4844,17 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 1st Sendik's, work w/ Carlie</t>
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
@@ -4877,21 +4881,9 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>@ Store, 1st Sendik's, work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -4944,7 +4936,11 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -4973,7 +4969,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -4988,37 +4984,6 @@
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-27-24 to 11-02-24 Madison Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Madison Schedule.xlsx
@@ -4737,7 +4737,8 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>

--- a/10-27-24 to 11-02-24 Madison Schedule.xlsx
+++ b/10-27-24 to 11-02-24 Madison Schedule.xlsx
@@ -1365,7 +1365,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -1420,15 +1420,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1492,7 +1487,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1559,10 +1554,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>5:15 @ Home Depot Verona Rd, Driver 1/2</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1607,21 +1606,9 @@
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>5:15 @ Home Depot Verona Rd, Driver 1/2</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1735,7 +1722,11 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1804,7 +1795,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1871,7 +1862,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>NEUHAUSER PHARMACY, MADISON</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1938,7 +1929,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>NEUHAUSER PHARMACY, MADISON</t>
+          <t>1875 MONROE STREET</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1998,7 +1989,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>1875 MONROE STREET</t>
+          <t>https://goo.gl/maps/j2eZZNX3Weo</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2053,7 +2044,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/j2eZZNX3Weo</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2110,11 +2101,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2169,9 +2156,21 @@
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Driver, Optima, Equip</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2222,19 +2221,15 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Driver, Optima, Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2285,12 +2280,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2352,16 +2347,8 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2448,7 +2435,11 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2510,7 +2501,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2569,7 +2560,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2711, SOMERS - LIFO</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2628,7 +2619,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>FESTIVAL #2711, SOMERS - LIFO</t>
+          <t>6000 31ST ST</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2683,7 +2674,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>6000 31ST ST</t>
+          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2734,7 +2725,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
+          <t>*IL Meet is 4:45 am at IL Office</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2799,11 +2790,7 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2841,9 +2828,21 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2882,17 +2881,18 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Silver Van</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -2941,20 +2941,15 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3001,12 +2996,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3044,12 +3039,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3087,12 +3082,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3134,12 +3129,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3177,15 +3172,20 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3228,20 +3228,15 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3292,15 +3287,19 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3351,12 +3350,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3414,12 +3413,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3485,12 +3484,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3552,12 +3551,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3611,12 +3610,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3670,12 +3669,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3737,12 +3736,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3798,21 +3797,9 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
